--- a/biology/Botanique/Allium_pskemense/Allium_pskemense.xlsx
+++ b/biology/Botanique/Allium_pskemense/Allium_pskemense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allium pskemense est une espèce de plante bulbeuse appartenant à la famille des Amaryllidaceae[2]. Originaire des régions montagneuses d'Asie centrale, notamment des montagnes du Tian Shan, cette plante est appréciée pour ses fleurs délicates et son adaptation aux conditions difficiles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allium pskemense est une espèce de plante bulbeuse appartenant à la famille des Amaryllidaceae. Originaire des régions montagneuses d'Asie centrale, notamment des montagnes du Tian Shan, cette plante est appréciée pour ses fleurs délicates et son adaptation aux conditions difficiles.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Allium pskemense poussent à partir d'un bulbe souterrain et développent de longues tiges dressées, atteignant généralement entre 30 et 50 centimètres de hauteur. Au sommet de ces tiges, on trouve des inflorescences sphériques composées de petites fleurs blanc verdâtre à blanc crème. Ces fleurs sont souvent décrites comme étant parfumées, ajoutant une note agréable à leur attrait esthétique.
 </t>
@@ -542,7 +556,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce prospère dans les habitats alpins, les prairies de montagne et les pentes herbeuses, à des altitudes allant généralement de 1 500 à 3 000 mètres. Il est adapté à des climats frais et préfère les expositions ensoleillées.
 </t>
@@ -573,7 +589,9 @@
           <t>Médicinal</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il convient de noter que les propriétés spécifiques d'Allium pskemense n'ont pas été largement étudiées. Cependant, certaines espèces du genre Allium sont connues pour leurs propriétés antibactériennes, antifongiques et antioxydantes, ce qui suscite un intérêt potentiel pour des applications médicinales.
 </t>
